--- a/Database/DAFTAR SP2D SATKER.xlsx
+++ b/Database/DAFTAR SP2D SATKER.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
   <si>
     <t>DAFTAR SP2D SATKER</t>
   </si>
@@ -68,48 +68,555 @@
     <t xml:space="preserve">Pilih </t>
   </si>
   <si>
+    <t xml:space="preserve"> 231751701000534</t>
+  </si>
+  <si>
+    <t>24-02-2023</t>
+  </si>
+  <si>
+    <t>27-02-2023</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>GTUP NIHIL</t>
+  </si>
+  <si>
+    <t>00117T/626402/2023</t>
+  </si>
+  <si>
+    <t>LAINNYA</t>
+  </si>
+  <si>
+    <t>Pertanggungjawaban Tambahan Uang Persediaan Untuk Keperluan Belanja Barang</t>
+  </si>
+  <si>
+    <t>Cek Akun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751701000533</t>
+  </si>
+  <si>
+    <t>00115T/626402/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751701000535</t>
+  </si>
+  <si>
+    <t>00116T/626402/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751701000436</t>
+  </si>
+  <si>
+    <t>00114T/626402/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751701000424</t>
+  </si>
+  <si>
+    <t>23-02-2023</t>
+  </si>
+  <si>
+    <t>00098T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pertanggungjawaban Tambahan Uang Persediaan Untuk Keperluan Belanja Barang (BPP 01.PUSLATLUH KP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751701000425</t>
+  </si>
+  <si>
+    <t>00112T/626402/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751701000426</t>
+  </si>
+  <si>
+    <t>00113T/626402/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002449</t>
+  </si>
+  <si>
+    <t>NON GAJI</t>
+  </si>
+  <si>
+    <t>00095T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:01195/KW-AIK/I/2023 Tanggal 25 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751503000193</t>
+  </si>
+  <si>
+    <t>22-02-2023</t>
+  </si>
+  <si>
+    <t>01-03-2023</t>
+  </si>
+  <si>
+    <t>PENGHASILAN PPNPN INDUK</t>
+  </si>
+  <si>
+    <t>00087T/626402/2023</t>
+  </si>
+  <si>
+    <t>GAJI</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Pusat Pendidikan KP Bulan Februari Tahun 2023 untuk 13 Pegawai sesuai Surat Keputusan Nomor KEP2/KPA/BRSDM/2023 tgl 2 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751503000192</t>
+  </si>
+  <si>
+    <t>00096T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang sesuai surat keputusan No.KEP.3/KPA/BRSDM/I/2023.Tgl.02 Januari 2023,gaji PPNPN Bulan Februari Tahun 2023 untuk 16 Pegawai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751503000194</t>
+  </si>
+  <si>
+    <t>00102T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Februari Tahun 2023 untuk 43 Pegawai Sesuai SK No:KEP.1/KPA/BRSDM/I/2023 Tanggal 2 Januari 20223</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002416</t>
+  </si>
+  <si>
+    <t>00107T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1086/KW-TE/I/2023 Tanggal 25 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002423</t>
+  </si>
+  <si>
+    <t>00104T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:0090/KW-KRM/I/2023 Tanggal 26 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002415</t>
+  </si>
+  <si>
+    <t>00099T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1106/KW_TE/I/2023 Tanggal 31 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751302003074</t>
+  </si>
+  <si>
+    <t>00100T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:R055/RPC/PC+RC/II/23 Tanggal 9 Februari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751701000298</t>
+  </si>
+  <si>
+    <t>00097T/626402/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002348</t>
+  </si>
+  <si>
+    <t>21-02-2023</t>
+  </si>
+  <si>
+    <t>00094T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.225/BRSDM.1/KP.440/I/2023 Tanggal 6 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002347</t>
+  </si>
+  <si>
+    <t>00093T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.419,B.420/BRSDM.1/KP.440/I/2023 Tanggal 18 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002346</t>
+  </si>
+  <si>
+    <t>00092T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.221,250,552/BRSDM.1/KP.440/I/2023 Tgl.6,9,26 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002325</t>
+  </si>
+  <si>
+    <t>00091T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang sesuai Kwitansi Nomor:282/UMUM/2/2023 Tanggal 6 Februari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002326</t>
+  </si>
+  <si>
+    <t>00090T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:0081/WK-KRM/I/2023 Tanggal 24 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751301004430</t>
+  </si>
+  <si>
+    <t>00089T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:0257/AGA.04.02/F06010000/2023 Tanggal 3 Februari 2023 (Pembayaran Rekening Listrik Bulan Februari 2023 utnuk pemakaian Energi Listrik Bln.Januari 2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002313</t>
+  </si>
+  <si>
+    <t>GUP KKP</t>
+  </si>
+  <si>
+    <t>00088T/626402/2023</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set. BRSDM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751503000159</t>
+  </si>
+  <si>
+    <t>GAJI INDUK</t>
+  </si>
+  <si>
+    <t>00073T/626402/2023</t>
+  </si>
+  <si>
+    <t>14-02-2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai(Pembayaran Gaji Induk PNS Puslatluh Bulan Maret 2023 Untuk 39 Pegawai 109 Jiwa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751503000150</t>
+  </si>
+  <si>
+    <t>00072T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Gaji Induk PNS Pusdik Bulan Maret 2023 Untuk 45 Pegawai 121 Jiwa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751503000160</t>
+  </si>
+  <si>
+    <t>00079T/626402/2023</t>
+  </si>
+  <si>
+    <t>15-02-2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Gaji Induk PNS SET BRSDM Bulan Maret 2023 Untuk 77 Pegawai 204 Jiwa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002215</t>
+  </si>
+  <si>
+    <t>20-02-2023</t>
+  </si>
+  <si>
+    <t>GUP</t>
+  </si>
+  <si>
+    <t>00086T/626402/2023</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan untuk keperluan Belanja Barang (BPP 001 Set. BRSDM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303002097</t>
+  </si>
+  <si>
+    <t>17-02-2023</t>
+  </si>
+  <si>
+    <t>00083T/626402/2023</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan untuk keperluan Belanja Barag (Puslatluh KP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751301003783</t>
+  </si>
+  <si>
+    <t>16-02-2023</t>
+  </si>
+  <si>
+    <t>NON GAJI KONTRAKTUAL</t>
+  </si>
+  <si>
+    <t>00085T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK NO:3/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.401/PPK/BRSDM.1/I/2023 Tgl.31-1-2023,BAP No:402/PPK/BRSDM.1/I/2023 Tgl.31-1-2023 Pengadaan Jasa Satuan Pengamanan Sekretariat BRSDM TA.2023 (TERMIN I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751302002378</t>
+  </si>
+  <si>
+    <t>00084T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK NO:2/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.403/PPK/BRSDM.1/I/2023 Tgl.31-1-2023,BAP NO:404/PPK/BRSDM.1/I/2023 Tgl.31-1-2023 Pengadaan Jasa Tenaga Kebersihan Sekretariat BRSDM TA.2023 (TERMIN I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001880</t>
+  </si>
+  <si>
+    <t>00081T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SK No:1,9 Tahun 2023 Tgl.2,5 Januari 2023, SK No:KEP.5,6,8,9,10,12/KPA/BRSDM/I/2023 Tgl.2,3,4 Januari 2023,SK No:KEP.19/MEN-KP/KU.611/2022 Tgl.4 Maret 2022 (Honorarium Pengelola Keuangan Bln.Januari 2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001829</t>
+  </si>
+  <si>
+    <t>GAJI LAINNYA</t>
+  </si>
+  <si>
+    <t>00082T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Kekurangan Uang Makan PNS SET BSRDM Bulan Januari 2023 Untuk 72 Pegawai)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001828</t>
+  </si>
+  <si>
+    <t>00080T/626402/2023</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan untuk Keperluan Pembayaran Belanja Barang (BPP 002 Pusat Pendidikan KP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751301003372</t>
+  </si>
+  <si>
+    <t>00078T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:1/PPK/BRSDM.1/I/2023 Tgl.2-1-2023,BAST No:BAST.405/PPK/BRSDM.1/I/2023 Tgl.31-1-2023,BAP No:406/PPK/BRSDM.1/I/2023 Tgl.31-1-2023 Pengadaan Jasa Internet Provider Sekretariat BRSDM TA.2023 (TERMIN 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751301003224</t>
+  </si>
+  <si>
+    <t>00076T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:241/PPK/BRSDM.1/I/2023 Tgl.18-1-2023,BAST No:BAST.281/PPK/BRSDM.1/I/2023 Tgl.20-1-2023,BAP NO:282/PPK/BRSDM.1/I/2023 Tgl.20-1-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001729</t>
+  </si>
+  <si>
+    <t>00077T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.88/BRSDM/KP.440/I/2023 Tgl.17 Januari 2023,Surat Tugas Nomor:B.451/BRSDM.1/KP.440/I/2023 Tgl.18 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001715</t>
+  </si>
+  <si>
+    <t>00075T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Modal Sesuai SPK No:342/PPK/BRSDM.1/I/2023 Tgl.26-1-2023,BAST No:BAST.383/PPK/BRSDM.1/I/2023 Tgl.30-1-2023,BAP No:384/PPK/BRSDM.1/I/2023 Tgl.30-1-2023 Pengadaan TV WALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001561</t>
+  </si>
+  <si>
+    <t>13-02-2023</t>
+  </si>
+  <si>
+    <t>00064T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang dalam rangka Pendampingan Kolaborasi Penyuluh dengan program Desa Perikanan Cerdas (SFV) Sesuai Surat Tugas Nomor:B.249/BRSDM.4/KP.440/I/2023 tanggal 24 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001563</t>
+  </si>
+  <si>
+    <t>00066T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup lanjutan tubel Prog S2 dan S3 IPB, UNDIP, AUP, UB dan UNS Periode Jan-Juni 2023 sesuai dengan SK Ka BRSDM KP No: 757/KPA/BRSDM/VIII/2021 Tgl 13-8-2021 dan 107/KE P-BRSDM/2020 Tgl 18-82020 an. Endang Pu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001564</t>
+  </si>
+  <si>
+    <t>00065T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup peserta lanjutan tubel Prog S2 dan S3 IPB, UNDIP, UNPAD, UB dan UNS Periode Jan-Juni 2023 sesuai dengan SK Ka BRSDM KP No: 520 Tahun 2022 Tgl 11 Agustus 2022 an. Fitriska Hapsyari Sutrisno, dkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001502</t>
+  </si>
+  <si>
+    <t>10-02-2023</t>
+  </si>
+  <si>
+    <t>00071T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Uang Makan PNS SET BRSDM Bulan Januari 2023 Untuk 72 Pegawai)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001503</t>
+  </si>
+  <si>
+    <t>00069T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Uang Makan PNS Puslatluh Bulan Januari 2023 untuk 34 Pegawai)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001501</t>
+  </si>
+  <si>
+    <t>00070T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Uang Makan PNS Pusdik Bulan Januari 2023 Untuk 41 Pegawai)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001475</t>
+  </si>
+  <si>
+    <t>PENGHASILAN PPNPN SUSULAN</t>
+  </si>
+  <si>
+    <t>00068T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Januari Tahun 2023 untuk 1 Pegawai Sesuai Surat Keputusan Nomor:KEP.1/KPA/BRSDM/I/2023 Tanggal 02 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001408</t>
+  </si>
+  <si>
+    <t>09-02-2023</t>
+  </si>
+  <si>
+    <t>00067T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Januari Tahun 2023 untuk 2 Pegawai Sesuai Surat Keputusan Nomor:KEP.1/KPA/BRSDM/I/2023 Tanggal 02 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751301002378</t>
+  </si>
+  <si>
+    <t>00059T/626402/2023</t>
+  </si>
+  <si>
+    <t>08-02-2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:1300031276 Tanggal 30 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751302001450</t>
+  </si>
+  <si>
+    <t>00060T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kwitansi Nomor:130001276 Tanggal 30 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751302001445</t>
+  </si>
+  <si>
+    <t>00062T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Modal Sesuai SPK No:343/PPK/BRSDM.1/I/2023 tgl.26-1-2023,BAST No:BAST.385/PPK/BRSDM.1/I/2023 tgl.30-1-2023,BAP No:386/PPK/BRSDM.1/2023 tgl.30-1-2023 Pengadaan media penayangan rapat konferensi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001265</t>
+  </si>
+  <si>
+    <t>00061T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Modal Sesuai SPK No:341/PPK/BRSDM.1/I/2023 tgl.26-1-2023, BAST No:BAST.381/PPK/BRSDM.1/I/2023 tgl.30-1-2023, BAP NO:382/PPK/BRSDM.1/I/2023 tgl.30-1-2023 Pengadaan Infrastruktur/Sarp ras Command Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001229</t>
+  </si>
+  <si>
+    <t>00056T/626402/2023</t>
+  </si>
+  <si>
+    <t>07-02-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001230</t>
+  </si>
+  <si>
+    <t>00063T/626402/2023</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan Untuk Keperluan Belanja Barang (BPP 001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303001132</t>
+  </si>
+  <si>
+    <t>00057T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembyaran Belanja Barang Sesuai Surat TUgas  Nomor:B.304/BRSDM.1/KP.440/I/2023 Tanggal 10 Januari 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 231751303001133</t>
   </si>
   <si>
-    <t>07-02-2023</t>
-  </si>
-  <si>
-    <t>09-02-2023</t>
-  </si>
-  <si>
-    <t>IDR</t>
-  </si>
-  <si>
-    <t>NON GAJI</t>
-  </si>
-  <si>
     <t>00058T/626402/2023</t>
   </si>
   <si>
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.309/BRSDM.1/KP.440/I/2023 Tanggal 10 Januari 2023</t>
   </si>
   <si>
-    <t>Cek Akun</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751303001132</t>
-  </si>
-  <si>
-    <t>00057T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembyaran Belanja Barang Sesuai Surat TUgas  Nomor:B.304/BRSDM.1/KP.440/I/2023 Tanggal 10 Januari 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 231751301001866</t>
   </si>
   <si>
     <t>06-02-2023</t>
   </si>
   <si>
-    <t>08-02-2023</t>
-  </si>
-  <si>
     <t>00054T/626402/2023</t>
   </si>
   <si>
@@ -134,6 +641,21 @@
     <t>Pembayaran Belanja Pegawai (Pembayaaran Tunjangan Kinerja PNS Set.BRSDM Bulan Januari 2023 Untuk 75 Pegawai)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 231751303001002</t>
+  </si>
+  <si>
+    <t>KEKURANGAN GAJI</t>
+  </si>
+  <si>
+    <t>00047T/626402/2023</t>
+  </si>
+  <si>
+    <t>03-02-2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Kekurangan Gaji Tunjangan Fungsional PNS Puslatluh Bulan Januari 2023 untuk 5 Pegawai 17 Jiwa)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 231751303001018</t>
   </si>
   <si>
@@ -152,12 +674,18 @@
     <t>00050T/626402/2023</t>
   </si>
   <si>
-    <t>03-02-2023</t>
-  </si>
-  <si>
     <t>Pembayaran Belanja Pegawai (Pembayaran Gaji Susulan PNS Pusdik Bulan Januari-Februari 2023 Untuk 1 Pegawai 1 Jiwa)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 231751303001017</t>
+  </si>
+  <si>
+    <t>00048T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai (Pembayaran Kekurangan Gaji Tunjangan Fungsional PNS PUSDIK Bulan Januari 2023 Untuk 4 Pegawai 10 Jiwa)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 231751303001015</t>
   </si>
   <si>
@@ -167,27 +695,6 @@
     <t>Pembayaran Belanja Pegawai (Pembayaran Tunjangan Kinerja PNS Puslatluh Bulan Januari 2023 Untuk 34 Pegawai)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 231751303001017</t>
-  </si>
-  <si>
-    <t>KEKURANGAN GAJI</t>
-  </si>
-  <si>
-    <t>00048T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Pegawai (Pembayaran Kekurangan Gaji Tunjangan Fungsional PNS PUSDIK Bulan Januari 2023 Untuk 4 Pegawai 10 Jiwa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751303001002</t>
-  </si>
-  <si>
-    <t>00047T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Pegawai (Pembayaran Kekurangan Gaji Tunjangan Fungsional PNS Puslatluh Bulan Januari 2023 untuk 5 Pegawai 17 Jiwa)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 231751303000907</t>
   </si>
   <si>
@@ -209,6 +716,15 @@
     <t>Pembayaran belanja barang sesuai surat tugas nomor: B.456, B.483/BRSDM.1/KP.440/I/2023 tanggal 19 Januari 2023 dan 20 Januari 2023.</t>
   </si>
   <si>
+    <t xml:space="preserve"> 231751303000846</t>
+  </si>
+  <si>
+    <t>00045T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor: B.85/BRSDM.1/KP.440/2023 tanggal 16 Januari 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 231751303000844</t>
   </si>
   <si>
@@ -218,21 +734,9 @@
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.129/BRSDM/KP.440/I/2023 Tanggal 24 Januari 2023 dan No.B.101/BRSDM.5/KP.440/I/2023.Tgl.20 Januari 2023.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 231751303000846</t>
-  </si>
-  <si>
-    <t>00045T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor: B.85/BRSDM.1/KP.440/2023 tanggal 16 Januari 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 231751301001479</t>
   </si>
   <si>
-    <t>NON GAJI KONTRAKTUAL</t>
-  </si>
-  <si>
     <t>00039T/626402/2023</t>
   </si>
   <si>
@@ -248,6 +752,15 @@
     <t>Pembayaran Belanja Barang Sesuai SPK No:SPK-1210/SPK/BRSDM.5/XII/2022 Tgl.30-12-2022,BAST No:BAST.1211/PPBJ.PL/BRSDM.5/I/2023 Tgl.31-1-2023,BAP No:BAP.1211/PPBJ.PL/BRSDM.5/II/2023 Tgl.01-2-2023</t>
   </si>
   <si>
+    <t xml:space="preserve"> 231751303000774</t>
+  </si>
+  <si>
+    <t>00042T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor: B.513/BRSDM.1/KP.440/2023 tanggal 25 Januari 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 231751303000773</t>
   </si>
   <si>
@@ -257,21 +770,9 @@
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.60/BRSDM/KP.440/I/2023 tanggal 10 Januari 2023 dan B.225/BRSDM.1/KKP.440/I/2023 tanggal 6 Januari 2023.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 231751303000774</t>
-  </si>
-  <si>
-    <t>00042T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor: B.513/BRSDM.1/KP.440/2023 tanggal 25 Januari 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 231751303000769</t>
   </si>
   <si>
-    <t>GUP KKP</t>
-  </si>
-  <si>
     <t>00043T/626402/2023</t>
   </si>
   <si>
@@ -284,33 +785,18 @@
     <t>01-02-2023</t>
   </si>
   <si>
-    <t>GUP</t>
-  </si>
-  <si>
     <t>00036T/626402/2023</t>
   </si>
   <si>
-    <t>Penggantian Uang Persediaan untuk Keperluan Pembayaran Belanja Barang (BPP 002 Pusat Pendidikan KP)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 231751701000015</t>
   </si>
   <si>
-    <t>GTUP NIHIL</t>
-  </si>
-  <si>
     <t>00031T/626402/2023</t>
   </si>
   <si>
     <t>31-01-2023</t>
   </si>
   <si>
-    <t>LAINNYA</t>
-  </si>
-  <si>
-    <t>Pertanggungjawaban Tambahan Uang Persediaan Untuk Keperluan Belanja Barang</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 231751302000821</t>
   </si>
   <si>
@@ -356,27 +842,27 @@
     <t>Penggantian Uang Persediaan untuk keperluan Belanja Barag (BPP 001 Set.BRSDM)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 231751303000513</t>
+  </si>
+  <si>
+    <t>30-01-2023</t>
+  </si>
+  <si>
+    <t>00030T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.276/?BRSDM.1/TU.440/I/2023 Tanggal 10 Januari 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 231751303000512</t>
   </si>
   <si>
-    <t>30-01-2023</t>
-  </si>
-  <si>
     <t>00029T/626402/2023</t>
   </si>
   <si>
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.303/BRSDM.1/KP.440/I/2023 Tanggal 10 Januari 2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> 231751303000513</t>
-  </si>
-  <si>
-    <t>00030T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.276/?BRSDM.1/TU.440/I/2023 Tanggal 10 Januari 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 231751303000459</t>
   </si>
   <si>
@@ -425,6 +911,48 @@
     <t>Penyediaan Tambahan Uang Persediaan Satker 626402 Sekretariat BRSDM KP sesuai Surat Persetujuan Nomor:S-267/KPN.1206/2023 Tanggal 20 Januari 2023</t>
   </si>
   <si>
+    <t xml:space="preserve"> 231751303000329</t>
+  </si>
+  <si>
+    <t>00024T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.414/BRSDM.1/KP.440/I/2023 Tanggal 18 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303000325</t>
+  </si>
+  <si>
+    <t>00020T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.200/BRSDM.1/KP.440/I/2023 Tanggal 6 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303000324</t>
+  </si>
+  <si>
+    <t>00019T/626402/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303000326</t>
+  </si>
+  <si>
+    <t>00021T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.370/BRSDM.1/KP.440/I/2023 Tanggal 16 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303000357</t>
+  </si>
+  <si>
+    <t>00015T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.201/BRSDM.1/KP.440/I/2023 Tanggal 6 Januari 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 231751303000343</t>
   </si>
   <si>
@@ -434,13 +962,25 @@
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.141/BRSDM.1/KP.440/I/2023 Tanggal 4 Januari 2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> 231751303000326</t>
-  </si>
-  <si>
-    <t>00021T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.370/BRSDM.1/KP.440/I/2023 Tanggal 16 Januari 2023</t>
+    <t xml:space="preserve"> 231751303000356</t>
+  </si>
+  <si>
+    <t>00025T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayara Belanja Barang Sesuai Surat Tugas Nomor:B.200/BRSDM.1/KP.440/I/2023 Tanggal 6 Januari 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303000359</t>
+  </si>
+  <si>
+    <t>00017T/626402/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751303000358</t>
+  </si>
+  <si>
+    <t>00016T/626402/2023</t>
   </si>
   <si>
     <t xml:space="preserve"> 231751303000328</t>
@@ -461,72 +1001,12 @@
     <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.303,B.304/BRSDM.1/KP.440/I/2023 Tanggal 10 Januari 2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> 231751303000324</t>
-  </si>
-  <si>
-    <t>00019T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.200/BRSDM.1/KP.440/I/2023 Tanggal 6 Januari 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751303000329</t>
-  </si>
-  <si>
-    <t>00024T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.414/BRSDM.1/KP.440/I/2023 Tanggal 18 Januari 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751303000325</t>
-  </si>
-  <si>
-    <t>00020T/626402/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751303000358</t>
-  </si>
-  <si>
-    <t>00016T/626402/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751303000357</t>
-  </si>
-  <si>
-    <t>00015T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.201/BRSDM.1/KP.440/I/2023 Tanggal 6 Januari 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751303000359</t>
-  </si>
-  <si>
-    <t>00017T/626402/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751303000356</t>
-  </si>
-  <si>
-    <t>00025T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayara Belanja Barang Sesuai Surat Tugas Nomor:B.200/BRSDM.1/KP.440/I/2023 Tanggal 6 Januari 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 231751503000090</t>
   </si>
   <si>
-    <t>PENGHASILAN PPNPN INDUK</t>
-  </si>
-  <si>
     <t>00013T/626402/2023</t>
   </si>
   <si>
-    <t>GAJI</t>
-  </si>
-  <si>
     <t>Pembayaran Belanja Barang sesuai surat keputusan No.KEP.3/KPA/BRSDM/I/2023.Tgl.02 Januari 2023,gaji PPNPN Bulan Januari Tahun 2023 untuk 16 Pegawai.</t>
   </si>
   <si>
@@ -563,9 +1043,6 @@
     <t xml:space="preserve"> 231751503000042</t>
   </si>
   <si>
-    <t>GAJI INDUK</t>
-  </si>
-  <si>
     <t>00008T/626402/2023</t>
   </si>
   <si>
@@ -638,37 +1115,37 @@
     <t>Pembayaran belanja pegawai(pembayaran gaji susulan pegawai Sekretariat BRSDMKP bulan Januari 2023 untuk 1 pegawai/1 Jiwa)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 231751503000017</t>
+  </si>
+  <si>
+    <t>21-12-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
+    <t>00002T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji induk pegawai Puslatluh bulan Januari 2023 untuk 39 pegawai/110 Jiwa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231751503000019</t>
+  </si>
+  <si>
+    <t>00003T/626402/2023</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji induk pegawai Pusdik bulan Januari 2023 untuk 44 pegawai/120 Jiwa)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 231751503000018</t>
   </si>
   <si>
-    <t>21-12-2022</t>
-  </si>
-  <si>
-    <t>01-01-2023</t>
-  </si>
-  <si>
     <t>00001T/626402/2023</t>
   </si>
   <si>
     <t>Pembayaran belanja pegawai(Pembayaran Gaji Induk pegawai Sekretariat BRSDM bulan Januari 2023 untuk 76 pegawai/203 Jiwa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751503000017</t>
-  </si>
-  <si>
-    <t>00002T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai(pembayaran gaji induk pegawai Puslatluh bulan Januari 2023 untuk 39 pegawai/110 Jiwa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 231751503000019</t>
-  </si>
-  <si>
-    <t>00003T/626402/2023</t>
-  </si>
-  <si>
-    <t>Pembayaran belanja pegawai(pembayaran gaji induk pegawai Pusdik bulan Januari 2023 untuk 44 pegawai/120 Jiwa)</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1493,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="1">
-        <v>1710000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1108,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="1">
-        <v>1710000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
@@ -1120,13 +1597,13 @@
         <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -1135,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -1144,7 +1621,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="1">
-        <v>9753677</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
@@ -1156,25 +1633,25 @@
         <v>19</v>
       </c>
       <c r="I5" s="1">
-        <v>9753677</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -1186,13 +1663,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
-        <v>21740991</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -1201,28 +1678,28 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1">
-        <v>21740991</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -1231,16 +1708,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
-        <v>7370735</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
@@ -1249,28 +1726,28 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1">
-        <v>7370735</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -1279,16 +1756,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1">
-        <v>388493717</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -1300,25 +1777,25 @@
         <v>18</v>
       </c>
       <c r="I8" s="1">
-        <v>388493717</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -1327,16 +1804,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1">
-        <v>215928650</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -1348,25 +1825,25 @@
         <v>18</v>
       </c>
       <c r="I9" s="1">
-        <v>215928650</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1"/>
     </row>
@@ -1375,16 +1852,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1">
-        <v>6835800</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
@@ -1396,25 +1873,25 @@
         <v>18</v>
       </c>
       <c r="I10" s="1">
-        <v>6835800</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1423,16 +1900,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
-        <v>192068114</v>
+        <v>897000</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
@@ -1441,28 +1918,28 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1">
-        <v>192068114</v>
+        <v>897000</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -1471,16 +1948,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
-        <v>25359600</v>
+        <v>66132000</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>20</v>
@@ -1489,28 +1966,28 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1">
-        <v>25359600</v>
+        <v>66132000</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1519,16 +1996,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1">
-        <v>44187800</v>
+        <v>81279000</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
@@ -1537,28 +2014,28 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1">
-        <v>44187800</v>
+        <v>81279000</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" s="1"/>
     </row>
@@ -1567,16 +2044,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1">
-        <v>34600600</v>
+        <v>219857770</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
@@ -1585,28 +2062,28 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1">
-        <v>34600600</v>
+        <v>219857770</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -1615,16 +2092,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>8468650</v>
+        <v>8820000</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
@@ -1633,28 +2110,28 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I15" s="1">
-        <v>8468650</v>
+        <v>8820000</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -1663,46 +2140,46 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14655856</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>14655856</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1">
-        <v>9800000</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="1">
-        <v>9800000</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P16" s="1"/>
     </row>
@@ -1711,16 +2188,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1">
-        <v>6775500</v>
+        <v>11861920</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -1729,28 +2206,28 @@
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I17" s="1">
-        <v>6775500</v>
+        <v>11861920</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -1759,16 +2236,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>32991864</v>
+        <v>17883278</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
@@ -1777,28 +2254,28 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1">
-        <v>32991864</v>
+        <v>17883278</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -1807,16 +2284,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1">
-        <v>32887092</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>20</v>
@@ -1825,28 +2302,28 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1">
-        <v>32887092</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -1855,16 +2332,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1">
-        <v>7140000</v>
+        <v>7125020</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
@@ -1873,28 +2350,28 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I20" s="1">
-        <v>7140000</v>
+        <v>7125020</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P20" s="1"/>
     </row>
@@ -1903,16 +2380,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1">
-        <v>4590000</v>
+        <v>4515000</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>20</v>
@@ -1921,28 +2398,28 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I21" s="1">
-        <v>4590000</v>
+        <v>4515000</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -1951,16 +2428,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1">
-        <v>20068988</v>
+        <v>2520000</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -1969,28 +2446,28 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I22" s="1">
-        <v>20068988</v>
+        <v>2520000</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -1999,16 +2476,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1">
-        <v>99955469</v>
+        <v>10921500</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
@@ -2017,28 +2494,28 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I23" s="1">
-        <v>99955469</v>
+        <v>10921500</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P23" s="1"/>
     </row>
@@ -2047,16 +2524,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>12145140</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>20</v>
@@ -2065,28 +2542,28 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>12145140</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -2095,46 +2572,46 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1">
+        <v>151387770</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="1">
+        <v>151387770</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="1">
-        <v>37979730</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="1">
-        <v>37979730</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -2143,16 +2620,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1">
-        <v>36568125</v>
+        <v>17848265</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
@@ -2161,28 +2638,28 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I26" s="1">
-        <v>36568125</v>
+        <v>17848265</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -2191,16 +2668,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1">
-        <v>5326766</v>
+        <v>180714800</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
@@ -2209,28 +2686,28 @@
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I27" s="1">
-        <v>5326766</v>
+        <v>180714800</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P27" s="1"/>
     </row>
@@ -2239,16 +2716,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1">
-        <v>320961489</v>
+        <v>191591800</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>20</v>
@@ -2257,28 +2734,28 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I28" s="1">
-        <v>320961489</v>
+        <v>191591800</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P28" s="1"/>
     </row>
@@ -2287,16 +2764,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1">
-        <v>98488627</v>
+        <v>319632700</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>20</v>
@@ -2305,28 +2782,28 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I29" s="1">
-        <v>98488627</v>
+        <v>319632700</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P29" s="1"/>
     </row>
@@ -2335,16 +2812,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1">
-        <v>16821479</v>
+        <v>99422945</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>20</v>
@@ -2353,28 +2830,28 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I30" s="1">
-        <v>16821479</v>
+        <v>99422945</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P30" s="1"/>
     </row>
@@ -2383,46 +2860,46 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="1">
+        <v>92355554</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="1">
+        <v>92355554</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="1">
-        <v>8591000</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="1">
-        <v>8591000</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="O31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P31" s="1"/>
     </row>
@@ -2431,16 +2908,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1">
-        <v>50692502</v>
+        <v>195973941</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>20</v>
@@ -2449,28 +2926,28 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="I32" s="1">
-        <v>50692502</v>
+        <v>195973941</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P32" s="1"/>
     </row>
@@ -2479,16 +2956,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1">
-        <v>7321500</v>
+        <v>210235174</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>20</v>
@@ -2497,28 +2974,28 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="I33" s="1">
-        <v>7321500</v>
+        <v>210235174</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P33" s="1"/>
     </row>
@@ -2527,16 +3004,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1">
-        <v>172162162</v>
+        <v>15351200</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>20</v>
@@ -2545,28 +3022,28 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="I34" s="1">
-        <v>172162162</v>
+        <v>15351200</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P34" s="1"/>
     </row>
@@ -2575,16 +3052,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E35" s="1">
-        <v>1335320000</v>
+        <v>11821850</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
@@ -2593,28 +3070,28 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I35" s="1">
-        <v>1335320000</v>
+        <v>11821850</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P35" s="1"/>
     </row>
@@ -2623,46 +3100,46 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="1">
+        <v>99937617</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="1">
+        <v>99937617</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1152800</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1152800</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="L36" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P36" s="1"/>
     </row>
@@ -2671,16 +3148,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1">
-        <v>1334500</v>
+        <v>41716217</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>20</v>
@@ -2689,28 +3166,28 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I37" s="1">
-        <v>1334500</v>
+        <v>41716217</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P37" s="1"/>
     </row>
@@ -2719,16 +3196,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1">
-        <v>820000</v>
+        <v>151912613</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>20</v>
@@ -2737,28 +3214,28 @@
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I38" s="1">
-        <v>820000</v>
+        <v>151912613</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P38" s="1"/>
     </row>
@@ -2767,16 +3244,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1">
-        <v>21841204</v>
+        <v>1115000</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>20</v>
@@ -2785,28 +3262,28 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I39" s="1">
-        <v>21841204</v>
+        <v>1115000</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P39" s="1"/>
     </row>
@@ -2815,16 +3292,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1">
-        <v>93138974</v>
+        <v>131777027</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>20</v>
@@ -2833,28 +3310,28 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I40" s="1">
-        <v>93138974</v>
+        <v>131777027</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P40" s="1"/>
     </row>
@@ -2863,16 +3340,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E41" s="1">
-        <v>300000</v>
+        <v>16394000</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>20</v>
@@ -2881,28 +3358,28 @@
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I41" s="1">
-        <v>300000</v>
+        <v>16394000</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P41" s="1"/>
     </row>
@@ -2911,16 +3388,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E42" s="1">
-        <v>19900000</v>
+        <v>232550040</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>20</v>
@@ -2929,28 +3406,28 @@
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I42" s="1">
-        <v>19900000</v>
+        <v>232550040</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P42" s="1"/>
     </row>
@@ -2959,16 +3436,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E43" s="1">
-        <v>20738160</v>
+        <v>138195036</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>20</v>
@@ -2977,28 +3454,28 @@
         <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I43" s="1">
-        <v>20738160</v>
+        <v>138195036</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P43" s="1"/>
     </row>
@@ -3007,46 +3484,46 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="1">
+        <v>27335800</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="1">
+        <v>27335800</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="1">
-        <v>720000</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" s="1">
-        <v>720000</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="O44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P44" s="1"/>
     </row>
@@ -3055,46 +3532,46 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="1">
+        <v>20226350</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" s="1">
+        <v>20226350</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="1">
-        <v>15082960</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I45" s="1">
-        <v>15082960</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="O45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P45" s="1"/>
     </row>
@@ -3103,46 +3580,46 @@
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="1">
+        <v>22399500</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" s="1">
+        <v>22399500</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="1">
-        <v>45645400</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I46" s="1">
-        <v>45645400</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="O46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P46" s="1"/>
     </row>
@@ -3151,46 +3628,46 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5052960</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5052960</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="1">
-        <v>81279000</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="1">
-        <v>81279000</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="O47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P47" s="1"/>
     </row>
@@ -3199,46 +3676,46 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10105920</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="1">
+        <v>10105920</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="1">
-        <v>66132000</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I48" s="1">
-        <v>66132000</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="O48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P48" s="1"/>
     </row>
@@ -3247,46 +3724,46 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="1">
+        <v>19202000</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="1">
+        <v>19202000</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="1">
-        <v>204698890</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="1">
-        <v>204698890</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>175</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P49" s="1"/>
     </row>
@@ -3295,46 +3772,46 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8608950</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" s="1">
+        <v>8608950</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="1">
-        <v>12252499</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" s="1">
-        <v>12252499</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>175</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P50" s="1"/>
     </row>
@@ -3343,46 +3820,46 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="1">
+        <v>102777207</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" s="1">
+        <v>102777207</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="1">
-        <v>178545300</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I51" s="1">
-        <v>178545300</v>
-      </c>
-      <c r="J51" s="1" t="s">
+      <c r="M51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="O51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P51" s="1"/>
     </row>
@@ -3391,46 +3868,46 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="1">
+        <v>453188739</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" s="1">
+        <v>453188739</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="1">
-        <v>317556700</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I52" s="1">
-        <v>317556700</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="M52" s="1" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P52" s="1"/>
     </row>
@@ -3439,16 +3916,16 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="E53" s="1">
-        <v>185514300</v>
+        <v>99318129</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>20</v>
@@ -3457,28 +3934,28 @@
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="I53" s="1">
-        <v>185514300</v>
+        <v>99318129</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P53" s="1"/>
     </row>
@@ -3487,16 +3964,16 @@
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="E54" s="1">
-        <v>149880784</v>
+        <v>90797615</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>20</v>
@@ -3505,28 +3982,28 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="I54" s="1">
-        <v>149880784</v>
+        <v>90797615</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P54" s="1"/>
     </row>
@@ -3535,16 +4012,16 @@
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="E55" s="1">
-        <v>300000000</v>
+        <v>9753677</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>20</v>
@@ -3553,28 +4030,28 @@
         <v>1</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="I55" s="1">
-        <v>300000000</v>
+        <v>9753677</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P55" s="1"/>
     </row>
@@ -3583,16 +4060,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E56" s="1">
-        <v>3998900</v>
+        <v>1710000</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>20</v>
@@ -3601,28 +4078,28 @@
         <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="I56" s="1">
-        <v>3998900</v>
+        <v>1710000</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P56" s="1"/>
     </row>
@@ -3631,16 +4108,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="E57" s="1">
-        <v>316419400</v>
+        <v>21740991</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>20</v>
@@ -3649,28 +4126,28 @@
         <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="I57" s="1">
-        <v>316419400</v>
+        <v>21740991</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P57" s="1"/>
     </row>
@@ -3679,16 +4156,16 @@
         <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="E58" s="1">
-        <v>179384100</v>
+        <v>7370735</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>20</v>
@@ -3697,28 +4174,28 @@
         <v>1</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="I58" s="1">
-        <v>179384100</v>
+        <v>7370735</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P58" s="1"/>
     </row>
@@ -3727,51 +4204,2499 @@
         <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="1">
+        <v>388493717</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" s="1">
+        <v>388493717</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44187800</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44187800</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="1">
+        <v>215928650</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I61" s="1">
+        <v>215928650</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N61" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="O61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="1">
+        <v>6835800</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I62" s="1">
+        <v>6835800</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="1">
+        <v>25359600</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I63" s="1">
+        <v>25359600</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E59" s="1">
+      <c r="K63" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="1">
+        <v>192068114</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I64" s="1">
+        <v>192068114</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="1">
+        <v>34600600</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I65" s="1">
+        <v>34600600</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="1">
+        <v>8468650</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I66" s="1">
+        <v>8468650</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="1">
+        <v>6775500</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I67" s="1">
+        <v>6775500</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="1">
+        <v>9800000</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I68" s="1">
+        <v>9800000</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" s="1">
+        <v>32991864</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I69" s="1">
+        <v>32991864</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="1">
+        <v>32887092</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I70" s="1">
+        <v>32887092</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4590000</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I71" s="1">
+        <v>4590000</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7140000</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I72" s="1">
+        <v>7140000</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="1">
+        <v>20068988</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I73" s="1">
+        <v>20068988</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="1">
+        <v>99955469</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I74" s="1">
+        <v>99955469</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" s="1">
+        <v>37979730</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I76" s="1">
+        <v>37979730</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E77" s="1">
+        <v>36568125</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I77" s="1">
+        <v>36568125</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5326766</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I78" s="1">
+        <v>5326766</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" s="1">
+        <v>320961489</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I79" s="1">
+        <v>320961489</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E80" s="1">
+        <v>98488627</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I80" s="1">
+        <v>98488627</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="1">
+        <v>8591000</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I81" s="1">
+        <v>8591000</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E82" s="1">
+        <v>16821479</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I82" s="1">
+        <v>16821479</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="1">
+        <v>50692502</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I83" s="1">
+        <v>50692502</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E84" s="1">
+        <v>7321500</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I84" s="1">
+        <v>7321500</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85" s="1">
+        <v>172162162</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I85" s="1">
+        <v>172162162</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1335320000</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1335320000</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E87" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I87" s="1">
+        <v>300000</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E88" s="1">
+        <v>19900000</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I88" s="1">
+        <v>19900000</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E89" s="1">
+        <v>93138974</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I89" s="1">
+        <v>93138974</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1334500</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1334500</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="1">
+        <v>720000</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I91" s="1">
+        <v>720000</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1152800</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1152800</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45645400</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I93" s="1">
+        <v>45645400</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E94" s="1">
+        <v>15082960</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I94" s="1">
+        <v>15082960</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" s="1">
+        <v>20738160</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I95" s="1">
+        <v>20738160</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E96" s="1">
+        <v>820000</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I96" s="1">
+        <v>820000</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E97" s="1">
+        <v>21841204</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I97" s="1">
+        <v>21841204</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E98" s="1">
+        <v>81279000</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I98" s="1">
+        <v>81279000</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E99" s="1">
+        <v>66132000</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I99" s="1">
+        <v>66132000</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100" s="1">
+        <v>204698890</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I100" s="1">
+        <v>204698890</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E101" s="1">
+        <v>12252499</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I101" s="1">
+        <v>12252499</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E102" s="1">
+        <v>178545300</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I102" s="1">
+        <v>178545300</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E103" s="1">
+        <v>317556700</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I103" s="1">
+        <v>317556700</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E104" s="1">
+        <v>185514300</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I104" s="1">
+        <v>185514300</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P104" s="1"/>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E105" s="1">
+        <v>149880784</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I105" s="1">
+        <v>149880784</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P105" s="1"/>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E106" s="1">
+        <v>300000000</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I106" s="1">
+        <v>300000000</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E107" s="1">
+        <v>3998900</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I107" s="1">
+        <v>3998900</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E108" s="1">
+        <v>179384100</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I108" s="1">
+        <v>179384100</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P108" s="1"/>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E109" s="1">
         <v>186713300</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I59" s="1">
+      <c r="F109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I109" s="1">
         <v>186713300</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="2"/>
+      <c r="J109" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P109" s="1"/>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E110" s="1">
+        <v>316419400</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I110" s="1">
+        <v>316419400</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P110" s="1"/>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
